--- a/biology/Botanique/Acokanthera/Acokanthera.xlsx
+++ b/biology/Botanique/Acokanthera/Acokanthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acokanthera est un genre de plantes dicotylédones  de la famille des Apocynaceae, originaire d'Afrique orientale, qui regroupe cinq espèces.
 Ce sont des arbustes ou petits arbres produisant un latex blanc. Toutes les espèces contiennent des hétérosides cardiaques, notamment l'ouabaïne, et sont de ce fait très toxiques. Elles ont été utilisées pour produire des poisons de flèches.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (4 février 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (4 février 2018) :
 Acokanthera laevigata Kupicha
 Acokanthera oblongifolia (Hochst.) Benth. &amp; Hook.f. ex B.D.Jacks.
 Acokanthera oppositifolia (Lam.) Codd
